--- a/xlsx/a69_f20UPPachuca.xlsx
+++ b/xlsx/a69_f20UPPachuca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\Vo. Bo. Uno 2do Tri 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guada\Desktop\4to trimestre\CARGA PLATAFORMA\VOBO. 1\modificado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33A1F140-F029-4D51-8A26-E9EE4D496B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BF244B-47BD-4570-9979-91918B46ECFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,12 @@
     <definedName name="Hidden_3_Tabla_35072514">Hidden_3_Tabla_350725!$A$1:$A$32</definedName>
     <definedName name="Hidden_3_Tabla_56610014">Hidden_3_Tabla_566100!$A$1:$A$32</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="320">
   <si>
     <t>44251</t>
   </si>
@@ -842,71 +842,19 @@
     <t>Código postal</t>
   </si>
   <si>
-    <t>Inscripción UPP</t>
-  </si>
-  <si>
-    <t>En linea</t>
-  </si>
-  <si>
-    <t>https://ruts.hidalgo.gob.mx/ver/944</t>
-  </si>
-  <si>
-    <t>Ingeniería/licenciatura y Terapia Física 
-1.- Formato de inscripción (Ver formato anexo)
-2.- Acta de nacimiento.
-3.- Certificado de Bachillerato con promedio mínimo de 7.0 (en caso de no contar con el certificado de Nivel Medio Superior presentar constancia de conclusión de bachillerato con promedio la cual deberá mencionar que el certificado se encuentra en trámite)
-4.- Clave Única de Registro de Población  (CURP).
-5.- Certificado médico con grupo sanguíneo.
-6. Ingresar a la página web de la Universidad (www.upp.edu.mx), dar click en Sistema Integral para imprimir formas de pago por triplicado y dirigirse a cualquier sucursal, BANORTE del país.
-7. Identificación oficial vigente
-Nivel Posgrado 
-1.- Acta de nacimiento.
-2.- Certificado del nivel educativo inmediato anterior con un promedio mínimo de 8.0 (en caso de no contar con el certificado de Nivel Inmediato Anterior presentar una  constancia de título en trámite la cual deberá mencionar el promedio final ).
-3.- Copia digital de título profesional o grado académico (en caso de no contar con el Título Profesional  presentar una  constancia de título en trámite).
-4.- Copia digital de cédula profesional  (en caso de no contar con la cédula Profesional  presentar una  constancia de cédula Profesional  en trámite).
-5.- Certificado médico reciente con grupo sanguíneo.
-6.- Clave Única de Registro de Población  (CURP).
-7.- Copia digital de la carta de aceptación emitida por la coordinación del programa educativo correspondiente.
-8.- Constancia de Vigencia de Derechos del IMSS.
-9.- Copia digital de identificación oficial con fotografía vigente.
-11.- Comprobante de pago de inscripción.</t>
-  </si>
-  <si>
-    <t>30 minutos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un cuatrimestre o semestre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,719.00  16.57   UMA's
-$4,298.00   41.43 UMA's
-$3,438.00 33.14 UMA's
-$7,366.00  71.01 UMA's </t>
-  </si>
-  <si>
-    <t>Cuotas y Tarifas del Organismo Descentralizado de la Administración Pública Estatal denominado “Universidad Politécnica de Pachuca”, para el Ejercicio Fiscal del año 2023.</t>
-  </si>
-  <si>
-    <t>Reglamento del Nivel Licenciatura de la Universidad Politécnica de Pachuca. Título Segundo, Del Ingreso, Capítulo ll De la ingreso las y los estudiantes, Artículo 16</t>
-  </si>
-  <si>
-    <t>Afirmativa Ficta</t>
-  </si>
-  <si>
-    <t>https://ruts.hidalgo.gob.mx/</t>
-  </si>
-  <si>
-    <t>Unidad de Transparencia Gubernamental (UPP)</t>
-  </si>
-  <si>
-    <t>Los campos e hipervinculos que se observan vacios es por que no se requieren para solicitar el servicio
-Servicio Vigente para el ejercicio 2023.</t>
-  </si>
-  <si>
     <t>Becas Institucionales UPP</t>
   </si>
   <si>
-    <t>https://ruts.hidalgo.gob.mx/ver/8893</t>
+    <t>Informar a la población estudiantil interesados en participar en el proceso de selección para la obtención de alguna de las becas que otorga la Universidad, así como de los requisitos para la obtención de la misma.</t>
+  </si>
+  <si>
+    <t>Población Estudiantil de la Universidad Politécnica de Pachuca.</t>
+  </si>
+  <si>
+    <t>Presencial</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/ver/10793</t>
   </si>
   <si>
     <t>1.- Solicitud de beca
@@ -920,27 +868,42 @@
     <t>4 meses  o 6 meses según sea el caso</t>
   </si>
   <si>
-    <t>No tiene</t>
-  </si>
-  <si>
     <t>Reglamento de Becas Institucionales para becas internas,  Reglas de Operación del Programa Nacional de Becas para el ejercicio fiscal vigente, para la gestión de Becas externas.</t>
   </si>
   <si>
-    <t>Estadía Profesional UPP</t>
+    <t xml:space="preserve">Solicitar una revisión de expediente y justificación del veredicto. </t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/</t>
+  </si>
+  <si>
+    <t>Departamento de Evaluación y Estadistica (UPP)</t>
+  </si>
+  <si>
+    <t>Los campos e hipervínculos que se observan vacíos es por que no se requieren para solicitar el trámite y por su naturaleza no requiere el pago del mismo
+Trámite Vigente para el ejercicio 2023.</t>
+  </si>
+  <si>
+    <t>Estadía profesional UPP</t>
+  </si>
+  <si>
+    <t>Última asignatura que desarrollarán estudiantes de décimo cuatrimestre en un ambiente laboral real, para aplicar los conocimientos teóricos.</t>
+  </si>
+  <si>
+    <t>Estudiantes de décimo cuatrimestre que ha integrado los créditos al 100%.</t>
   </si>
   <si>
     <t>https://ruts.hidalgo.gob.mx/ver/8907</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Formato F-VI_EI-01 Solicitud de Estadía 
+    <t>1. Formato F-VI_EI-01 Solicitud de Estadía 
 2. Carta de interés de la empresa receptora 
 3.Carta de Aceptación de la empresa receptora
 4. Constancia de no adeudo de materias
 5. Constancia con número de seguro facultativo 
 6. Carnet expedido por el IMSS 
 7. Constancia de Acreditación de Servicio Social ó Carta de Terminación
-8. Currículm Vitae 
+8. Currículo Vitae 
 9. Carnet o constancia de Actividades Extracurriculares
 10. Carta de Terminación de la Empresa o Institución
 11. Formato F-VI_EI-02 Reportes mensuales (3, 4, 5 o 6 según corresponda)
@@ -954,79 +917,118 @@
     <t>Permanente</t>
   </si>
   <si>
-    <t>Reglamento de Estadía Profesional para Ingenierías y la Licenciatura en Terapia Física.</t>
-  </si>
-  <si>
-    <t>Informar los requisitos y el proceso que deberán seguir a la población estudiantil que son aceptados que desean inscribirse (cuatrimestral o semestral).</t>
-  </si>
-  <si>
-    <t>Informar a la población estudiantil interesados en participar en el proceso de selección para la obtención de alguna de las becas que otorga la Universidad, así como de los requisitos para la obtención de la misma.</t>
-  </si>
-  <si>
-    <t>Última asignatura que desarrollarán la población estudiantil de décimo cuatrimestre en un ambiente laboral real, para aplicar los conocimientos teóricos.</t>
-  </si>
-  <si>
-    <t>Población Estudiantil que desea ser inscrito oficialmente en la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Población Estudiantil de la Universidad Politécnica de Pachuca.</t>
-  </si>
-  <si>
-    <t>Población Estudiantil de décimo cuatrimestre que ha integrado los créditos al 100%.</t>
-  </si>
-  <si>
-    <t>Institución Bancaria BANORTE</t>
-  </si>
-  <si>
-    <t>Servicios Escolares</t>
-  </si>
-  <si>
-    <t>Pachuca-Cd. Sahagún</t>
-  </si>
-  <si>
-    <t>Sin número</t>
-  </si>
-  <si>
-    <t>Santa. Bárbara</t>
+    <t>Reglamento de Estadía Profesional para Ingenierías y la Lic. en Terapia Física</t>
+  </si>
+  <si>
+    <t>Afirmativa Ficta</t>
+  </si>
+  <si>
+    <t>Asignación de Servicio Social UPP</t>
+  </si>
+  <si>
+    <t>Es la realización obligatoria de actividades temporales que ejecuten los estudiantes de carreras profesionales, tendientes a la aplicación de sus conocimientos en beneficio de la sociedad y del Estado; con el objetivo de
+fomentar en los estudiantes un espíritu de solidaridad y una conciencia de responsabilidad para ayudar a la sociedad en los mejoramientos social, cultural y económico, obsequiando un poco de tiempo para realizar actividades en beneficio de la entidad.</t>
+  </si>
+  <si>
+    <t>Comunidad estudiantil que ha acreditado el 55% de asignaturas de su plan educativo en el caso de ingenierías, y estudiantes que han acreditado el 100% de asignaturas del plan educativo para áreas de la salud.</t>
+  </si>
+  <si>
+    <t>https://ruts.hidalgo.gob.mx/ver/10970</t>
+  </si>
+  <si>
+    <t>1.- Tener cubierto el 55% del total de sus asignaturas para Ingenierías y la totalidad de asignaturas para el área de salud.
+2.- Estar inscrito y haber realizado el pago de inscripción.
+3.- 2 Fotografías óvalo 3.5 x 5 cm. escala de grises.
+4.- Llenar solicitud de asignación de servicio social.
+5.- Tramitar su constancia en el área de servicios escolares de manera presencial.
+6.- Solicitar su constancia con número de seguridad social en servicios escolares de manera presencial.</t>
+  </si>
+  <si>
+    <t>4 días hábiles</t>
+  </si>
+  <si>
+    <t>Reglamento de Servicio Social para Ingenierías y la Licenciatura en Terapia Física.</t>
+  </si>
+  <si>
+    <t>Área de Becas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pachuca - Cd. Sahagún Km. 20</t>
+  </si>
+  <si>
+    <t>s/n</t>
+  </si>
+  <si>
+    <t>Santa Bárbara</t>
+  </si>
+  <si>
+    <t>Rancho Luna</t>
   </si>
   <si>
     <t>Zempoala</t>
   </si>
   <si>
+    <t xml:space="preserve">No hay domicilio en el extranjero </t>
+  </si>
+  <si>
+    <t>771 547 7510 Ext. 2273</t>
+  </si>
+  <si>
+    <t>becas@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Lunes a viernes días haábiles de 9:00 a.m. a 17:00 horas</t>
+  </si>
+  <si>
+    <t>Estadías</t>
+  </si>
+  <si>
+    <t>estadias@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Lunes a viernes días hábiles de 8:00 a.m. a 16:00 horas</t>
+  </si>
+  <si>
+    <t>Servicio Social</t>
+  </si>
+  <si>
+    <t>771 547 7510 Ext. 2424</t>
+  </si>
+  <si>
+    <t>771 547 7510  Ext. 2304</t>
+  </si>
+  <si>
+    <t>serviciosocial@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Pachuca - Cd. Sahagún Km. 20</t>
+  </si>
+  <si>
+    <t>Santa bárbara</t>
+  </si>
+  <si>
+    <t>771 54 77 510 Ext. 2424</t>
+  </si>
+  <si>
+    <t>771547 7510 Ext. 2304</t>
+  </si>
+  <si>
+    <t>771 54-77-510  Extensión: 2228</t>
+  </si>
+  <si>
+    <t>dir.planeacion@upp.edu.mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pachuca Cd. Sahagún Km. 20  </t>
+  </si>
+  <si>
     <t>No hay domicilio en el extranjero</t>
   </si>
   <si>
-    <t>771 54-77-510  Extensión: 2213</t>
-  </si>
-  <si>
-    <t>servescolares@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Lunes a viernes de 8:00 a. m. a 16:00 horas</t>
-  </si>
-  <si>
-    <t>Área de Becas</t>
-  </si>
-  <si>
-    <t>771 54-77-510  Extensión: 2273</t>
-  </si>
-  <si>
-    <t>becas@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Lunes a viernes de 9:00 a.m. a 17:00 horas</t>
-  </si>
-  <si>
-    <t>Estadías</t>
-  </si>
-  <si>
-    <t> 771 54 77 510 Extensión: 2264</t>
-  </si>
-  <si>
-    <t>estadias@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Lunes a Viernes de  8:00 a.m a 16:00 horas</t>
+    <t>771 54-77-510  Extensión: 2264</t>
+  </si>
+  <si>
+    <t>contraloria@upp.edu.mx</t>
   </si>
 </sst>
 </file>
@@ -1034,19 +1036,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1065,49 +1060,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1157,75 +1115,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1251,39 +1197,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1316,23 +1262,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1368,23 +1297,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1396,166 +1308,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1563,22 +1451,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8:AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="119.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="190.5703125" customWidth="1"/>
-    <col min="10" max="10" width="47.7109375" customWidth="1"/>
+    <col min="9" max="9" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" customWidth="1"/>
     <col min="11" max="11" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="103.28515625" bestFit="1" customWidth="1"/>
@@ -1586,7 +1474,7 @@
     <col min="15" max="15" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="53.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.28515625" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="46" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="138" bestFit="1" customWidth="1"/>
@@ -1597,7 +1485,7 @@
     <col min="26" max="26" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="56.7109375" customWidth="1"/>
+    <col min="29" max="29" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
@@ -1606,38 +1494,38 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:29" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="18" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1818,40 +1706,40 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-    </row>
-    <row r="7" spans="1:29" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+    </row>
+    <row r="7" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1939,240 +1827,234 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="314.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>2023</v>
       </c>
-      <c r="B8" s="5">
-        <v>45017</v>
-      </c>
-      <c r="C8" s="5">
-        <v>45107</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="17">
+        <v>45200</v>
+      </c>
+      <c r="C8" s="17">
+        <v>45291</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="G8" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="K8" s="5">
-        <v>45014</v>
+      <c r="H8" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K8" s="10">
+        <v>45266</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="P8" s="6">
+        <v>270</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="P8" s="9">
         <v>1</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="S8" s="6">
-        <v>1</v>
-      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9">
+        <v>1</v>
+      </c>
+      <c r="X8" s="9">
+        <v>1</v>
+      </c>
       <c r="Y8" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="AA8" s="5">
-        <v>45117</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>45117</v>
-      </c>
-      <c r="AC8" s="13" t="s">
+      <c r="AA8" s="17">
+        <v>45301</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>45301</v>
+      </c>
+      <c r="AC8" s="11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:29" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>2023</v>
       </c>
-      <c r="B9" s="5">
-        <v>45017</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45107</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="17">
+        <v>45200</v>
+      </c>
+      <c r="C9" s="17">
+        <v>45291</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>265</v>
+      <c r="E9" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>267</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="K9" s="5">
-        <v>45014</v>
-      </c>
-      <c r="L9" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="K9" s="10">
+        <v>45266</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="P9" s="9">
         <v>2</v>
       </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="S9" s="6">
-        <v>0</v>
-      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
       <c r="T9" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
+        <v>284</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9">
+        <v>2</v>
+      </c>
+      <c r="X9" s="9">
+        <v>2</v>
+      </c>
       <c r="Y9" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="Z9" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="AA9" s="5">
-        <v>45117</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>45117</v>
-      </c>
-      <c r="AC9" s="13" t="s">
+      <c r="AA9" s="17">
+        <v>45301</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>45301</v>
+      </c>
+      <c r="AC9" s="11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="225" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:29" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>2023</v>
       </c>
-      <c r="B10" s="5">
-        <v>45017</v>
-      </c>
-      <c r="C10" s="5">
-        <v>45107</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>284</v>
+      <c r="B10" s="17">
+        <v>45200</v>
+      </c>
+      <c r="C10" s="17">
+        <v>45291</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="K10" s="10">
+        <v>45266</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="P10" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="U10" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="K10" s="5">
-        <v>45014</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="V10" s="9"/>
+      <c r="W10" s="9">
         <v>3</v>
       </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="X10" s="9">
+        <v>3</v>
+      </c>
       <c r="Y10" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="Z10" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="AA10" s="5">
-        <v>45117</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>45117</v>
-      </c>
-      <c r="AC10" s="13" t="s">
+      <c r="AA10" s="17">
+        <v>45301</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>45301</v>
+      </c>
+      <c r="AC10" s="11" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2188,13 +2070,14 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="Y8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Y9:Y10" r:id="rId8" display="https://ruts.hidalgo.gob.mx/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Y8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Y9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Y10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2375,19 +2258,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="N3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
@@ -2555,6 +2438,165 @@
         <v>107</v>
       </c>
     </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" s="3">
+        <v>83</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N4" s="3">
+        <v>13</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" s="3">
+        <v>43830</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J5" s="3">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="3">
+        <v>83</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N5" s="3">
+        <v>13</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P5" s="3">
+        <v>43830</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J6" s="3">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" s="3">
+        <v>83</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N6" s="3">
+        <v>13</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="3">
+        <v>43830</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -2567,6 +2609,11 @@
       <formula1>Hidden_3_Tabla_35072514</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3109,13 +3156,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="R3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="P3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -3133,7 +3180,7 @@
     <col min="16" max="16" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="93.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="42.85546875" customWidth="1"/>
+    <col min="19" max="19" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -3307,181 +3354,181 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="K4" s="3">
+        <v>83</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="M4" s="3">
+        <v>13</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O4" s="3">
+        <v>43830</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D5" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K5" s="3">
+        <v>83</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="M5" s="3">
+        <v>13</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O5" s="3">
+        <v>43830</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="Q5" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K6" s="3">
+        <v>83</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="M6" s="3">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O6" s="3">
+        <v>43830</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="I4" s="20">
-        <v>1</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="K4" s="20">
-        <v>83</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="M4" s="20">
-        <v>13</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="O4" s="20">
-        <v>43830</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="S4" s="20" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" s="20">
-        <v>1</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="K5" s="20">
-        <v>83</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="M5" s="20">
-        <v>13</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="O5" s="20">
-        <v>43830</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>3</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" s="20">
-        <v>1</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="K6" s="20">
-        <v>83</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="M6" s="20">
-        <v>13</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="O6" s="20">
-        <v>43830</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3496,6 +3543,11 @@
       <formula1>Hidden_3_Tabla_35072413</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="R5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="R4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="R6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4036,59 +4088,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="89.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93.7109375" bestFit="1" customWidth="1"/>
@@ -4250,6 +4293,156 @@
         <v>237</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" s="3">
+        <v>83</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N4" s="3">
+        <v>13</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" s="3">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J5" s="3">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="3">
+        <v>83</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N5" s="3">
+        <v>13</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P5" s="3">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J6" s="3">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" s="3">
+        <v>83</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N6" s="3">
+        <v>13</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P6" s="3">
+        <v>43830</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D201" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -4262,6 +4455,11 @@
       <formula1>Hidden_3_Tabla_56610014</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
